--- a/date function.xlsx
+++ b/date function.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83882200-7075-4CEE-B5EF-769B7C2A96EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C41381-DE6D-41A2-90D4-FED2BE1D23AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Loan Start Date</t>
   </si>
@@ -69,12 +70,21 @@
   <si>
     <t>month 2</t>
   </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>26 day</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +106,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -158,6 +176,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="106" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -415,12 +436,21 @@
       <c r="C2" s="5">
         <v>12</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4">
+        <f>EDATE(A2,B2)</f>
+        <v>45292</v>
+      </c>
+      <c r="E2" s="4">
+        <f>A2+C2</f>
+        <v>44939</v>
+      </c>
       <c r="F2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4">
+        <f>EDATE(A2,12*F2)</f>
+        <v>46753</v>
+      </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -433,12 +463,21 @@
       <c r="C3" s="5">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D6" si="0">EDATE(A3,B3)</f>
+        <v>44880</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E6" si="1">A3+C3</f>
+        <v>44702</v>
+      </c>
       <c r="F3" s="5">
         <v>6</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G6" si="2">EDATE(A3,12*F3)</f>
+        <v>46888</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -451,12 +490,21 @@
       <c r="C4" s="5">
         <v>18</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>44814</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>44283</v>
+      </c>
       <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <f t="shared" si="2"/>
+        <v>45726</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -469,12 +517,21 @@
       <c r="C5" s="5">
         <v>24</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>45828</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>45121</v>
+      </c>
       <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>45828</v>
+      </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -487,12 +544,21 @@
       <c r="C6" s="5">
         <v>36</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>45235</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>44176</v>
+      </c>
       <c r="F6" s="5">
         <v>7</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>46696</v>
+      </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1554,13 +1620,21 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" style="6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1569,21 +1643,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="6">
+        <f>EDATE(D2,-B2)</f>
         <v>44927</v>
       </c>
       <c r="B2">
@@ -1592,12 +1667,22 @@
       <c r="C2">
         <v>12</v>
       </c>
+      <c r="D2" s="6">
+        <v>45292</v>
+      </c>
+      <c r="E2" s="6">
+        <v>44939</v>
+      </c>
       <c r="F2">
         <v>5</v>
       </c>
+      <c r="G2" s="6">
+        <v>46753</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="6">
+        <f t="shared" ref="A3:A6" si="0">EDATE(D3,-B3)</f>
         <v>44696</v>
       </c>
       <c r="B3">
@@ -1606,12 +1691,22 @@
       <c r="C3">
         <v>6</v>
       </c>
+      <c r="D3" s="6">
+        <v>44880</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44702</v>
+      </c>
       <c r="F3">
         <v>6</v>
       </c>
+      <c r="G3" s="6">
+        <v>46888</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="6">
+        <f t="shared" si="0"/>
         <v>44265</v>
       </c>
       <c r="B4">
@@ -1620,12 +1715,22 @@
       <c r="C4">
         <v>18</v>
       </c>
+      <c r="D4" s="6">
+        <v>44814</v>
+      </c>
+      <c r="E4" s="6">
+        <v>44283</v>
+      </c>
       <c r="F4">
         <v>4</v>
       </c>
+      <c r="G4" s="6">
+        <v>45726</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="6">
+        <f t="shared" si="0"/>
         <v>45097</v>
       </c>
       <c r="B5">
@@ -1634,12 +1739,22 @@
       <c r="C5">
         <v>24</v>
       </c>
+      <c r="D5" s="6">
+        <v>45828</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45121</v>
+      </c>
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5" s="6">
+        <v>45828</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="6">
+        <f t="shared" si="0"/>
         <v>44140</v>
       </c>
       <c r="B6">
@@ -1648,8 +1763,382 @@
       <c r="C6">
         <v>36</v>
       </c>
+      <c r="D6" s="6">
+        <v>45235</v>
+      </c>
+      <c r="E6" s="6">
+        <v>44176</v>
+      </c>
       <c r="F6">
         <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>46696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532B1D89-6FB2-46A1-B453-EEDF5CB3FD98}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <f ca="1">TODAY()</f>
+        <v>45880</v>
+      </c>
+      <c r="B2" s="6">
+        <f ca="1">A2+26</f>
+        <v>45906</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <f ca="1">EDATE(A2,C2)</f>
+        <v>45911</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6">
+        <f ca="1">EDATE(A2,12*E2)</f>
+        <v>51724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>45881</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:B15" si="0">A3+26</f>
+        <v>45907</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D15" si="1">EDATE(A3,C3)</f>
+        <v>45942</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F15" si="2">EDATE(A3,12*E3)</f>
+        <v>51360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>45882</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>45908</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="1"/>
+        <v>45974</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="2"/>
+        <v>50995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>45883</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>45909</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>46005</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="2"/>
+        <v>50631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>45884</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>45910</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>46037</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="2"/>
+        <v>50267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>45885</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>45911</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
+        <v>46069</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>49903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>45886</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>45912</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>46098</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>49538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>45887</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>45913</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>46130</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>49174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>45888</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>45914</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>46161</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>48810</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>45889</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>45915</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>46193</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>48446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>45890</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>45916</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>46224</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
+        <v>48081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>45891</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>45917</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>46256</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="2"/>
+        <v>47717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>45892</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>45918</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>46288</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="2"/>
+        <v>47353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>45893</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>45919</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>46319</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="2"/>
+        <v>46989</v>
       </c>
     </row>
   </sheetData>

--- a/date function.xlsx
+++ b/date function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Cybrom work\Advance Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C41381-DE6D-41A2-90D4-FED2BE1D23AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14955DA-7600-4D57-B7A8-4BE9A243974B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,14 +572,14 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" s="6">
         <f ca="1">C10+D10</f>
-        <v>45887</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -615,13 +615,13 @@
       </c>
       <c r="C14" s="6">
         <f ca="1">EDATE(C10,2)</f>
-        <v>45941</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="6">
         <f ca="1">EDATE(C10,12*5)</f>
-        <v>47706</v>
+        <v>47707</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1619,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25D13C1-5FA7-47A3-897D-F4709F7AC0DB}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1783,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532B1D89-6FB2-46A1-B453-EEDF5CB3FD98}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1821,324 +1821,347 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B2" s="6">
-        <f ca="1">A2+26</f>
-        <v>45906</v>
+        <f t="shared" ref="B2:B16" ca="1" si="0">A2+26</f>
+        <v>45907</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="6">
-        <f ca="1">EDATE(A2,C2)</f>
-        <v>45911</v>
+        <f t="shared" ref="D2:D16" ca="1" si="1">EDATE(A2,C2)</f>
+        <v>45912</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6">
-        <f ca="1">EDATE(A2,12*E2)</f>
-        <v>51724</v>
+        <f t="shared" ref="F2:F16" ca="1" si="2">EDATE(A2,12*E2)</f>
+        <v>51360</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B15" si="0">A3+26</f>
-        <v>45907</v>
+        <f t="shared" si="0"/>
+        <v>45908</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D15" si="1">EDATE(A3,C3)</f>
-        <v>45942</v>
+        <f t="shared" si="1"/>
+        <v>45943</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F15" si="2">EDATE(A3,12*E3)</f>
-        <v>51360</v>
+        <f t="shared" si="2"/>
+        <v>50995</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="1"/>
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="2"/>
-        <v>50995</v>
+        <v>50631</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="1"/>
-        <v>46005</v>
+        <v>46006</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="2"/>
-        <v>50631</v>
+        <v>50267</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="1"/>
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="2"/>
-        <v>50267</v>
+        <v>49903</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="1"/>
-        <v>46069</v>
+        <v>46070</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="2"/>
-        <v>49903</v>
+        <v>49538</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="1"/>
-        <v>46098</v>
+        <v>46099</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="2"/>
-        <v>49538</v>
+        <v>49174</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="1"/>
-        <v>46130</v>
+        <v>46131</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="2"/>
-        <v>49174</v>
+        <v>48810</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="1"/>
-        <v>46161</v>
+        <v>46162</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>48810</v>
+        <v>48446</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="1"/>
-        <v>46193</v>
+        <v>46194</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="2"/>
-        <v>48446</v>
+        <v>48081</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="1"/>
-        <v>46224</v>
+        <v>46225</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>48081</v>
+        <v>47717</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="1"/>
-        <v>46256</v>
+        <v>46257</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>47717</v>
+        <v>47353</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="1"/>
-        <v>46288</v>
+        <v>46289</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>47353</v>
+        <v>46989</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="1"/>
-        <v>46319</v>
+        <v>46320</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>46989</v>
+        <v>46624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>45895</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>45921</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>46352</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="2"/>
+        <v>46260</v>
       </c>
     </row>
   </sheetData>
